--- a/conf-core/src/test/resources/dataloader/devices-fail-delete.test.xlsx
+++ b/conf-core/src/test/resources/dataloader/devices-fail-delete.test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>DELETE DEVICE</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>VOLTAGE</t>
-  </si>
-  <si>
-    <t>BPM2-02</t>
   </si>
   <si>
     <t>Help</t>
@@ -286,6 +283,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -301,8 +300,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -584,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:E1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -608,8 +605,8 @@
         <v>7</v>
       </c>
       <c r="E1">
-        <f>COUNTIF(C11:C65534,"*")</f>
-        <v>6</v>
+        <f>COUNTIF(C11:C65533,"*")</f>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21.95" customHeight="1">
@@ -623,7 +620,7 @@
         <v>10</v>
       </c>
       <c r="E2">
-        <f>SUMPRODUCT((D11:D65537&lt;&gt;"")/COUNTIF(D11:D65537,D11:D65537&amp;""))</f>
+        <f>SUMPRODUCT((D11:D65536&lt;&gt;"")/COUNTIF(D11:D65536,D11:D65536&amp;""))</f>
         <v>2</v>
       </c>
     </row>
@@ -638,7 +635,7 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <f>COUNTIF(A11:A65534,"CREATE DEVICE")</f>
+        <f>COUNTIF(A11:A65533,"CREATE DEVICE")</f>
         <v>0</v>
       </c>
     </row>
@@ -653,7 +650,7 @@
         <v>16</v>
       </c>
       <c r="E4">
-        <f>COUNTIF(A11:A65534,"UPDATE DEVICE")+COUNTIF(A11:A65534,"UPDATE PROPERTY")</f>
+        <f>COUNTIF(A11:A65533,"UPDATE DEVICE")+COUNTIF(A11:A65533,"UPDATE PROPERTY")</f>
         <v>0</v>
       </c>
     </row>
@@ -668,8 +665,8 @@
         <v>19</v>
       </c>
       <c r="E5">
-        <f>COUNTIF(A11:A65534,"DELETE DEVICE")+COUNTIF(A11:A65534,"DELETE PROPERTY")</f>
-        <v>7</v>
+        <f>COUNTIF(A11:A65533,"DELETE DEVICE")+COUNTIF(A11:A65533,"DELETE PROPERTY")</f>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="21.95" customHeight="1">
@@ -681,31 +678,31 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="21.95" customHeight="1">
       <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A10" s="7"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
@@ -773,40 +770,32 @@
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C15" t="s">
-        <v>33</v>
+      <c r="B15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="21.95" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
         <v>2</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21.95" customHeight="1"/>
-    <row r="19" spans="1:3" ht="21.95" customHeight="1"/>
+    <row r="17" ht="21.95" customHeight="1"/>
+    <row r="18" ht="21.95" customHeight="1"/>
+    <row r="1048574" spans="1:3">
+      <c r="A1048574"/>
+      <c r="B1048574"/>
+      <c r="C1048574"/>
+    </row>
     <row r="1048575" spans="1:3">
       <c r="A1048575"/>
       <c r="B1048575"/>
       <c r="C1048575"/>
-    </row>
-    <row r="1048576" spans="1:3">
-      <c r="A1048576"/>
-      <c r="B1048576"/>
-      <c r="C1048576"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
@@ -817,7 +806,7 @@
   </mergeCells>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Lorem Ipsum" sqref="A9:B9 D9:E9 A10:E10"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A18:A1048574">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A17:A1048573">
       <formula1>"CREATE DEVICE,UPDATE DEVICE,DELETE DEVICE,UPDATE PROPERTY,DELETE PROPERTY"</formula1>
     </dataValidation>
   </dataValidations>
